--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3136.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3136.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8013267177671179</v>
+        <v>1.324665069580078</v>
       </c>
       <c r="B1">
-        <v>1.105520059187234</v>
+        <v>1.420799851417542</v>
       </c>
       <c r="C1">
-        <v>1.957350667646965</v>
+        <v>1.634160041809082</v>
       </c>
       <c r="D1">
-        <v>4.610365518374353</v>
+        <v>2.687262296676636</v>
       </c>
       <c r="E1">
-        <v>3.603916988909679</v>
+        <v>4.584642887115479</v>
       </c>
     </row>
   </sheetData>
